--- a/Stundenabrechnung_2025_Sulamith.xlsx
+++ b/Stundenabrechnung_2025_Sulamith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l-gehsul00/Documents/GitHub_Sulamith/Administratives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l-gehsul00/Documents/BEBB-Github/Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69368B79-3C94-0D4C-85DE-2B563A4E9CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C9582-7805-8C47-ABF5-1E16500D570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51040" yWindow="-6920" windowWidth="20320" windowHeight="27980" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36560" yWindow="-6840" windowWidth="20320" windowHeight="27980" tabRatio="725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sollarbeitszeit" sheetId="13" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="120">
   <si>
     <t>Monat:</t>
   </si>
@@ -363,9 +363,6 @@
     <t xml:space="preserve">Mit Fritz kollationieren, Validierungsprobleme (Mails und Besprechung Elena), Programm zur Generierung von listPlace erstellt und Liste zum Testen hochgeladen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Programmierung von xi:include für den Index, Generierung der Listen, Bearbeitung von Issue  Behebung von Fehler in Schema mit Helena, </t>
-  </si>
-  <si>
     <t>Mails Hodler usw., Kollmar, Vorbereitung line recognition</t>
   </si>
   <si>
@@ -382,6 +379,30 @@
   </si>
   <si>
     <t>Kollationieren, Vorbereitung Meeting RISE, Meeting, Issues Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollationieren. Dublette, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmierung von xi:include für den Index, Generierung der Listen, Bearbeitung von Issue  Behebung von Fehler in Schema mit Helena, Bildrechte © Kantonale Denkmalpflege Basel-Stadt, Foto Erik Schmidt (Mail von Frau Sandoz, für Frau Kollmar). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Céline koll., Meeting RISE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Fritz kollationiert, Script für indent, Importscript von Margareth kontrolliert, </t>
+  </si>
+  <si>
+    <t>Mit Céline kollationiert</t>
+  </si>
+  <si>
+    <t>Mit Fritz kollationiert</t>
+  </si>
+  <si>
+    <t>Stichprobeweise Kontrollle</t>
+  </si>
+  <si>
+    <t>Mit Fritz kollationiert, Abstracts</t>
   </si>
 </sst>
 </file>
@@ -840,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1046,24 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1082,6 +1085,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1100,20 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1128,6 +1149,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,7 +2083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -2063,7 +2093,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -2086,7 +2116,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -2123,7 +2153,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -2209,9 +2239,9 @@
       </c>
       <c r="C13" s="35">
         <f>August!C51</f>
-        <v>-1024.6666666666667</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-926.66666666666674</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -2227,7 +2257,7 @@
         <f>August!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>August!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -2237,11 +2267,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -2253,12 +2283,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -2287,10 +2317,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -2313,10 +2343,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -2339,10 +2369,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -2365,10 +2395,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -2391,10 +2421,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -2469,10 +2499,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -2495,10 +2525,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -2521,10 +2551,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -2547,10 +2577,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -2573,10 +2603,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -2599,10 +2629,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -2651,10 +2681,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -2677,10 +2707,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -2703,10 +2733,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -2729,10 +2759,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -2755,10 +2785,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -2781,10 +2811,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -2833,10 +2863,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -2859,10 +2889,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -2885,10 +2915,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -2911,10 +2941,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -2937,10 +2967,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -2963,10 +2993,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -3015,10 +3045,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -3041,10 +3071,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -3056,11 +3086,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
@@ -3070,7 +3100,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="121" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="100"/>
@@ -3084,9 +3114,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-1024.6666666666667</v>
-      </c>
-      <c r="D49" s="105"/>
+        <v>-926.66666666666674</v>
+      </c>
+      <c r="D49" s="108"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -3098,9 +3128,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1172.5066666666667</v>
-      </c>
-      <c r="D50" s="109" t="s">
+        <v>-1074.5066666666667</v>
+      </c>
+      <c r="D50" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -3109,7 +3139,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="101"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -3120,7 +3150,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="120" t="s">
         <v>75</v>
       </c>
       <c r="E52" s="100"/>
@@ -3129,14 +3159,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="101"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -3145,28 +3175,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -3174,48 +3204,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
     <mergeCell ref="D58:H58"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
@@ -3228,6 +3216,48 @@
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3261,7 +3291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -3271,7 +3301,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -3294,7 +3324,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -3331,7 +3361,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -3417,9 +3447,9 @@
       </c>
       <c r="C13" s="35">
         <f>September!C50</f>
-        <v>-1172.5066666666667</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-1074.5066666666667</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -3435,7 +3465,7 @@
         <f>September!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>September!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -3445,11 +3475,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -3461,12 +3491,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -3495,10 +3525,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -3521,10 +3551,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -3547,10 +3577,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -3573,10 +3603,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -3599,10 +3629,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -3625,10 +3655,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -3651,10 +3681,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -3677,10 +3707,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -3703,10 +3733,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -3729,10 +3759,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -3755,10 +3785,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -3781,10 +3811,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -3807,10 +3837,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -3833,10 +3863,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -3859,10 +3889,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -3885,10 +3915,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -3911,10 +3941,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -3937,10 +3967,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -3963,10 +3993,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -3989,10 +4019,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -4015,10 +4045,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -4041,10 +4071,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -4067,10 +4097,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -4093,10 +4123,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -4119,10 +4149,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -4145,10 +4175,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -4171,10 +4201,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -4197,10 +4227,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -4223,10 +4253,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -4249,10 +4279,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -4275,10 +4305,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -4290,11 +4320,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -4304,7 +4334,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>76</v>
       </c>
       <c r="E49" s="100"/>
@@ -4318,9 +4348,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1172.5066666666667</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>-1074.5066666666667</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -4332,9 +4362,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1327.0666666666666</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-1229.0666666666666</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -4343,7 +4373,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -4354,7 +4384,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>77</v>
       </c>
       <c r="E53" s="100"/>
@@ -4363,14 +4393,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -4379,28 +4409,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -4408,31 +4438,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -4448,21 +4468,31 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4496,7 +4526,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -4506,7 +4536,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -4529,7 +4559,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -4566,7 +4596,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -4652,9 +4682,9 @@
       </c>
       <c r="C13" s="35">
         <f>Oktober!C51</f>
-        <v>-1327.0666666666666</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-1229.0666666666666</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -4671,7 +4701,7 @@
         <f>Oktober!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Oktober!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -4681,11 +4711,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -4697,12 +4727,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -4731,10 +4761,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -4757,10 +4787,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -4783,10 +4813,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -4809,10 +4839,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -4835,10 +4865,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -4861,10 +4891,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -4887,10 +4917,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -4913,10 +4943,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -4939,10 +4969,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -4965,10 +4995,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -4991,10 +5021,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -5017,10 +5047,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -5043,10 +5073,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -5069,10 +5099,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -5095,10 +5125,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -5121,10 +5151,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -5147,10 +5177,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -5173,10 +5203,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -5199,10 +5229,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -5225,10 +5255,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -5251,10 +5281,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -5277,10 +5307,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -5303,10 +5333,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -5329,10 +5359,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -5355,10 +5385,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -5381,10 +5411,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -5407,10 +5437,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -5433,12 +5463,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -5461,10 +5491,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -5502,11 +5532,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
@@ -5516,7 +5546,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="121" t="s">
         <v>78</v>
       </c>
       <c r="E48" s="100"/>
@@ -5530,9 +5560,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-1327.0666666666666</v>
-      </c>
-      <c r="D49" s="105"/>
+        <v>-1229.0666666666666</v>
+      </c>
+      <c r="D49" s="108"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -5544,9 +5574,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1461.4666666666667</v>
-      </c>
-      <c r="D50" s="109" t="s">
+        <v>-1363.4666666666667</v>
+      </c>
+      <c r="D50" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -5555,7 +5585,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="101"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -5566,7 +5596,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="120" t="s">
         <v>79</v>
       </c>
       <c r="E52" s="100"/>
@@ -5575,14 +5605,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="101"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -5591,28 +5621,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -5620,6 +5650,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
@@ -5636,44 +5704,6 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5707,27 +5737,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
@@ -5740,14 +5770,14 @@
       <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
     </row>
     <row r="5" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
@@ -5777,14 +5807,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
@@ -5863,15 +5893,15 @@
       </c>
       <c r="C13" s="35">
         <f>November!C50</f>
-        <v>-1461.4666666666667</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-1363.4666666666667</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
@@ -5881,7 +5911,7 @@
         <f>November!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>November!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -5891,11 +5921,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -5907,12 +5937,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -5941,10 +5971,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -5967,10 +5997,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -5993,10 +6023,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -6019,10 +6049,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -6045,10 +6075,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -6071,10 +6101,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -6097,10 +6127,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -6123,10 +6153,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -6149,10 +6179,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -6175,10 +6205,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -6201,10 +6231,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -6227,10 +6257,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -6253,10 +6283,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -6279,10 +6309,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -6305,10 +6335,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -6331,10 +6361,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -6357,10 +6387,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -6383,10 +6413,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -6409,10 +6439,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -6435,10 +6465,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -6487,10 +6517,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -6513,10 +6543,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -6623,10 +6653,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -6675,10 +6705,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -6701,10 +6731,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -6744,11 +6774,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -6758,13 +6788,13 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
@@ -6772,13 +6802,13 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1461.4666666666667</v>
-      </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
+        <v>-1363.4666666666667</v>
+      </c>
+      <c r="D50" s="108"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
@@ -6786,82 +6816,121 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1595.8666666666668</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-1497.8666666666668</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="32">
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="A1:H1"/>
@@ -6878,45 +6947,6 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -8238,8 +8268,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:G32"/>
+    <sheetView showRuler="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8259,7 +8289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -8269,7 +8299,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -8292,7 +8322,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -8329,7 +8359,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -8416,7 +8446,7 @@
       <c r="C13" s="35">
         <v>0</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="108" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="100"/>
@@ -8432,7 +8462,7 @@
         <f>5*G5/100*42+0</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="108" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="100"/>
@@ -8441,11 +8471,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -8457,12 +8487,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -8491,12 +8521,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -8519,12 +8549,12 @@
         <f t="shared" ref="C18:C47" si="2">L18*24</f>
         <v>3.9166666666666647</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19" t="s">
         <v>100</v>
       </c>
@@ -8555,12 +8585,12 @@
         <f t="shared" si="2"/>
         <v>5.5833333333333313</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19" t="s">
         <v>99</v>
       </c>
@@ -8591,10 +8621,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -8617,10 +8647,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -8643,12 +8673,12 @@
         <f t="shared" si="2"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19" t="s">
         <v>100</v>
       </c>
@@ -8679,12 +8709,12 @@
         <f t="shared" si="2"/>
         <v>6.7500000000000018</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19" t="s">
         <v>99</v>
       </c>
@@ -8715,12 +8745,12 @@
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19" t="s">
         <v>100</v>
       </c>
@@ -8751,12 +8781,12 @@
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
@@ -8787,12 +8817,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D26" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19" t="s">
         <v>100</v>
       </c>
@@ -8823,10 +8853,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -8849,10 +8879,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8875,12 +8905,12 @@
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="D29" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19" t="s">
         <v>100</v>
       </c>
@@ -8911,12 +8941,12 @@
         <f t="shared" si="2"/>
         <v>5.1666666666666661</v>
       </c>
-      <c r="D30" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19" t="s">
         <v>100</v>
       </c>
@@ -8947,12 +8977,12 @@
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D31" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19" t="s">
         <v>100</v>
       </c>
@@ -8983,12 +9013,12 @@
         <f t="shared" si="2"/>
         <v>3.5833333333333339</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19" t="s">
         <v>100</v>
       </c>
@@ -9019,12 +9049,12 @@
         <f t="shared" si="2"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="D33" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19" t="s">
         <v>100</v>
       </c>
@@ -9055,10 +9085,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -9081,10 +9111,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -9105,19 +9135,27 @@
       </c>
       <c r="C36" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
+      <c r="I36" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J36" s="90">
+        <v>0.625</v>
+      </c>
+      <c r="K36" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L36" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -9131,19 +9169,27 @@
       </c>
       <c r="C37" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
+      <c r="I37" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J37" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K37" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L37" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -9157,19 +9203,25 @@
       </c>
       <c r="C38" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
+      <c r="I38" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J38" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K38" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L38" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -9183,19 +9235,25 @@
       </c>
       <c r="C39" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
+      <c r="I39" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J39" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K39" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L39" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -9209,19 +9267,25 @@
       </c>
       <c r="C40" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+        <v>8</v>
+      </c>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
+      <c r="I40" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J40" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L40" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -9237,10 +9301,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -9263,10 +9327,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -9287,19 +9351,25 @@
       </c>
       <c r="C43" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
+      <c r="I43" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J43" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K43" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L43" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -9313,19 +9383,25 @@
       </c>
       <c r="C44" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
+      <c r="I44" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J44" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K44" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L44" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -9339,19 +9415,27 @@
       </c>
       <c r="C45" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
+      <c r="I45" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J45" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K45" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L45" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -9365,19 +9449,25 @@
       </c>
       <c r="C46" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
+      <c r="I46" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J46" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K46" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L46" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -9391,28 +9481,36 @@
       </c>
       <c r="C47" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+        <v>8</v>
+      </c>
+      <c r="D47" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
+      <c r="I47" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J47" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L47" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -9420,9 +9518,9 @@
       </c>
       <c r="C49" s="43">
         <f>SUM(C17:C48)</f>
-        <v>67.333333333333329</v>
-      </c>
-      <c r="D49" s="110" t="s">
+        <v>137.33333333333331</v>
+      </c>
+      <c r="D49" s="121" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="100"/>
@@ -9436,9 +9534,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>67.333333333333329</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>137.33333333333331</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -9450,9 +9548,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-80.506666666666675</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-10.506666666666689</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -9461,7 +9559,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -9472,7 +9570,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="100"/>
@@ -9481,14 +9579,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="100"/>
@@ -9497,28 +9595,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -9526,24 +9624,27 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D47:G47"/>
@@ -9560,27 +9661,24 @@
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -9596,8 +9694,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9614,7 +9712,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -9624,7 +9722,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -9647,7 +9745,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -9685,7 +9783,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -9771,9 +9869,9 @@
       </c>
       <c r="C13" s="35">
         <f>Januar!C51</f>
-        <v>-80.506666666666675</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-10.506666666666689</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -9789,7 +9887,7 @@
         <f>Januar!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Januar!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -9799,11 +9897,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="84" t="s">
@@ -9815,12 +9913,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -9849,10 +9947,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -9872,10 +9970,10 @@
         <f t="shared" ref="C18:C44" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -9893,19 +9991,27 @@
       </c>
       <c r="C19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="136"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
+      <c r="I19" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J19" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K19" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L19" s="90">
         <f t="shared" ref="L19:L44" si="3">J19-I19-K19</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -9919,19 +10025,27 @@
       </c>
       <c r="C20" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
+        <v>7</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
+      <c r="I20" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J20" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K20" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L20" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -9945,19 +10059,27 @@
       </c>
       <c r="C21" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J21" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K21" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L21" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -9971,19 +10093,27 @@
       </c>
       <c r="C22" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J22" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K22" s="90">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L22" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -9999,10 +10129,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
@@ -10025,10 +10155,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -10048,10 +10178,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -10123,10 +10253,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="19"/>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -10149,10 +10279,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
@@ -10175,10 +10305,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="90"/>
       <c r="J30" s="90"/>
@@ -10201,10 +10331,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -10224,10 +10354,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -10299,10 +10429,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -10325,10 +10455,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10351,10 +10481,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10377,10 +10507,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -10400,10 +10530,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -10475,10 +10605,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="90"/>
       <c r="J42" s="90"/>
@@ -10501,10 +10631,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="90"/>
       <c r="J43" s="90"/>
@@ -10527,10 +10657,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="90"/>
       <c r="J44" s="90"/>
@@ -10544,10 +10674,10 @@
       <c r="A45" s="79"/>
       <c r="B45" s="72"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
       <c r="I45" s="90"/>
       <c r="J45" s="90"/>
@@ -10556,11 +10686,11 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B46" s="37"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
@@ -10568,9 +10698,9 @@
       </c>
       <c r="C47" s="43">
         <f>SUM(C17:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="121" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="100"/>
@@ -10584,9 +10714,9 @@
       </c>
       <c r="C48" s="44">
         <f>C13+C47</f>
-        <v>-80.506666666666675</v>
-      </c>
-      <c r="D48" s="105"/>
+        <v>17.493333333333311</v>
+      </c>
+      <c r="D48" s="108"/>
       <c r="E48" s="100"/>
       <c r="F48" s="100"/>
       <c r="G48" s="100"/>
@@ -10598,9 +10728,9 @@
       </c>
       <c r="C49" s="32">
         <f>(C48-C7)</f>
-        <v>-214.90666666666669</v>
-      </c>
-      <c r="D49" s="109" t="s">
+        <v>-116.90666666666669</v>
+      </c>
+      <c r="D49" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="100"/>
@@ -10609,7 +10739,7 @@
       <c r="H49" s="100"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="101"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -10620,7 +10750,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D51" s="109" t="s">
+      <c r="D51" s="120" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="100"/>
@@ -10629,14 +10759,14 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="100"/>
@@ -10645,28 +10775,28 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
@@ -10674,43 +10804,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G41"/>
@@ -10727,6 +10820,43 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10760,7 +10890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -10770,7 +10900,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -10793,7 +10923,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -10830,7 +10960,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -10916,9 +11046,9 @@
       </c>
       <c r="C13" s="35">
         <f>Februar!C49</f>
-        <v>-214.90666666666669</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-116.90666666666669</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -10934,7 +11064,7 @@
         <f>Februar!C51</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Februar!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -10944,11 +11074,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -10960,12 +11090,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -10994,10 +11124,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -11020,10 +11150,10 @@
         <f t="shared" ref="C18:C47" si="2">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -11046,12 +11176,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -11074,12 +11204,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -11102,12 +11232,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -11130,12 +11260,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -11158,12 +11288,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -11186,10 +11316,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -11212,10 +11342,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -11238,12 +11368,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -11266,12 +11396,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -11294,12 +11424,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -11322,12 +11452,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -11350,12 +11480,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -11378,10 +11508,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -11404,10 +11534,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -11430,10 +11560,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -11456,10 +11586,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -11482,10 +11612,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -11508,10 +11638,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -11534,10 +11664,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -11560,10 +11690,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -11586,10 +11716,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -11612,10 +11742,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -11638,10 +11768,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -11664,10 +11794,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -11690,10 +11820,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -11716,10 +11846,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -11742,10 +11872,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -11768,10 +11898,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -11794,10 +11924,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -11809,11 +11939,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -11823,7 +11953,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="100"/>
@@ -11837,9 +11967,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-214.90666666666669</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>-116.90666666666669</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -11851,9 +11981,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-349.30666666666673</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-251.3066666666667</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -11862,7 +11992,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -11873,7 +12003,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="100"/>
@@ -11882,14 +12012,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -11898,28 +12028,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -11927,34 +12057,18 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -11970,18 +12084,34 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D43:G43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -12015,7 +12145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -12025,7 +12155,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -12048,7 +12178,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -12085,7 +12215,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -12171,9 +12301,9 @@
       </c>
       <c r="C13" s="35">
         <f>März!C51</f>
-        <v>-349.30666666666673</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-251.3066666666667</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -12189,7 +12319,7 @@
         <f>März!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>März!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -12199,11 +12329,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -12215,12 +12345,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -12249,10 +12379,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -12275,10 +12405,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -12301,10 +12431,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -12327,10 +12457,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -12353,10 +12483,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="21"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
@@ -12379,10 +12509,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -12405,10 +12535,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -12431,10 +12561,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -12457,10 +12587,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -12483,10 +12613,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -12509,10 +12639,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -12535,10 +12665,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -12561,10 +12691,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -12587,12 +12717,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -12615,12 +12745,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -12643,12 +12773,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -12671,12 +12801,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -12699,12 +12829,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -12727,10 +12857,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -12753,10 +12883,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -12779,12 +12909,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -12807,12 +12937,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -12835,12 +12965,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -12863,12 +12993,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -12891,12 +13021,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -12919,10 +13049,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -12945,10 +13075,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -12971,10 +13101,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -12997,10 +13127,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -13023,10 +13153,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="19"/>
       <c r="I46" s="90"/>
       <c r="J46" s="94"/>
@@ -13038,11 +13168,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="91"/>
       <c r="J47" s="91"/>
       <c r="K47" s="91"/>
@@ -13056,7 +13186,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="121" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="100"/>
@@ -13070,9 +13200,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-349.30666666666673</v>
-      </c>
-      <c r="D49" s="105"/>
+        <v>-251.3066666666667</v>
+      </c>
+      <c r="D49" s="108"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -13084,9 +13214,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-480.34666666666675</v>
-      </c>
-      <c r="D50" s="109" t="s">
+        <v>-382.34666666666669</v>
+      </c>
+      <c r="D50" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -13095,7 +13225,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="101"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -13106,7 +13236,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="120" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="100"/>
@@ -13115,14 +13245,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="101"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -13131,28 +13261,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -13160,6 +13290,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
@@ -13172,48 +13344,6 @@
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13247,7 +13377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -13257,7 +13387,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -13280,7 +13410,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -13317,7 +13447,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -13403,9 +13533,9 @@
       </c>
       <c r="C13" s="35">
         <f>April!C50</f>
-        <v>-480.34666666666675</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-382.34666666666669</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -13421,7 +13551,7 @@
         <f>April!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>April!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -13431,11 +13561,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -13447,12 +13577,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -13481,12 +13611,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -13509,10 +13639,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -13535,10 +13665,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -13561,10 +13691,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -13587,10 +13717,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="82"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -13613,10 +13743,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -13639,10 +13769,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -13665,10 +13795,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -13691,10 +13821,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="82"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -13717,10 +13847,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -13743,10 +13873,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -13769,10 +13899,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="82"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -13795,10 +13925,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -13821,10 +13951,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -13847,10 +13977,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -13873,10 +14003,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -13899,10 +14029,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -13925,10 +14055,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -13951,10 +14081,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="82"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -13977,10 +14107,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="82"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -14003,10 +14133,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -14029,10 +14159,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -14055,10 +14185,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -14081,10 +14211,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -14107,10 +14237,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -14133,10 +14263,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="82"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -14159,10 +14289,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -14185,10 +14315,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -14211,12 +14341,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -14239,12 +14369,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -14267,10 +14397,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="21"/>
       <c r="I47" s="96"/>
       <c r="J47" s="97"/>
@@ -14282,11 +14412,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -14296,7 +14426,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="100"/>
@@ -14310,9 +14440,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-480.34666666666675</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>-382.34666666666669</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -14324,9 +14454,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-601.30666666666673</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-503.30666666666673</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -14335,7 +14465,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -14346,7 +14476,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="100"/>
@@ -14355,14 +14485,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -14371,28 +14501,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -14400,6 +14530,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -14416,45 +14585,6 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -14488,7 +14618,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -14498,7 +14628,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -14521,7 +14651,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -14558,7 +14688,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -14644,9 +14774,9 @@
       </c>
       <c r="C13" s="35">
         <f>Mai!C51</f>
-        <v>-601.30666666666673</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-503.30666666666673</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -14662,7 +14792,7 @@
         <f>Mai!C14</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Mai!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -14672,11 +14802,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -14688,12 +14818,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -14722,10 +14852,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -14748,10 +14878,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="82"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -14774,10 +14904,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -14800,10 +14930,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -14826,10 +14956,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -14852,10 +14982,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -14878,10 +15008,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -14904,10 +15034,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -14930,12 +15060,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -14958,10 +15088,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -14984,10 +15114,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -15010,10 +15140,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -15036,10 +15166,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -15062,10 +15192,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="106"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -15088,10 +15218,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -15114,10 +15244,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="82"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -15140,10 +15270,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -15166,10 +15296,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -15192,10 +15322,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -15218,10 +15348,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -15244,10 +15374,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -15270,10 +15400,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -15296,10 +15426,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="82"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -15322,10 +15452,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -15348,10 +15478,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -15374,10 +15504,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -15400,10 +15530,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -15426,10 +15556,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -15452,10 +15582,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -15478,12 +15608,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="D46" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="82"/>
       <c r="I46" s="90"/>
       <c r="J46" s="94"/>
@@ -15495,11 +15625,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="91"/>
       <c r="J47" s="91"/>
       <c r="K47" s="91"/>
@@ -15513,7 +15643,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="121" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="100"/>
@@ -15527,9 +15657,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-601.30666666666673</v>
-      </c>
-      <c r="D49" s="105"/>
+        <v>-503.30666666666673</v>
+      </c>
+      <c r="D49" s="108"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -15541,9 +15671,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-735.70666666666671</v>
-      </c>
-      <c r="D50" s="109" t="s">
+        <v>-637.70666666666671</v>
+      </c>
+      <c r="D50" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -15552,7 +15682,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="101"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -15563,7 +15693,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="120" t="s">
         <v>69</v>
       </c>
       <c r="E52" s="100"/>
@@ -15572,14 +15702,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="101"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -15588,28 +15718,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -15617,6 +15747,49 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
@@ -15628,49 +15801,6 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -15704,7 +15834,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -15714,7 +15844,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -15737,7 +15867,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -15774,7 +15904,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -15860,9 +15990,9 @@
       </c>
       <c r="C13" s="35">
         <f>Juni!C50</f>
-        <v>-735.70666666666671</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-637.70666666666671</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -15878,7 +16008,7 @@
         <f>Juni!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Juni!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -15888,11 +16018,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -15904,12 +16034,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -15938,12 +16068,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
+      <c r="D17" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -15966,12 +16096,12 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -15994,12 +16124,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="D19" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -16022,12 +16152,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -16050,10 +16180,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="21"/>
       <c r="I21" s="96"/>
       <c r="J21" s="97"/>
@@ -16076,10 +16206,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="22"/>
       <c r="I22" s="96"/>
       <c r="J22" s="97"/>
@@ -16102,12 +16232,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
@@ -16130,12 +16260,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -16158,12 +16288,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="D25" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -16186,12 +16316,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -16214,12 +16344,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -16242,10 +16372,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="21"/>
       <c r="I28" s="96"/>
       <c r="J28" s="97"/>
@@ -16268,10 +16398,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="22"/>
       <c r="I29" s="96"/>
       <c r="J29" s="97"/>
@@ -16294,12 +16424,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="82"/>
       <c r="I30" s="82"/>
       <c r="J30" s="82"/>
@@ -16322,12 +16452,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -16350,12 +16480,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
+      <c r="D32" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -16378,12 +16508,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -16406,12 +16536,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -16434,10 +16564,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="21"/>
       <c r="I35" s="96"/>
       <c r="J35" s="97"/>
@@ -16460,10 +16590,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="22"/>
       <c r="I36" s="96"/>
       <c r="J36" s="97"/>
@@ -16486,12 +16616,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -16514,12 +16644,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="82"/>
       <c r="I38" s="82"/>
       <c r="J38" s="82"/>
@@ -16542,12 +16672,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -16570,12 +16700,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="D40" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -16598,12 +16728,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -16626,10 +16756,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="21"/>
       <c r="I42" s="96"/>
       <c r="J42" s="97"/>
@@ -16652,10 +16782,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
       <c r="H43" s="22"/>
       <c r="I43" s="96"/>
       <c r="J43" s="97"/>
@@ -16678,12 +16808,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="82"/>
       <c r="I44" s="82"/>
       <c r="J44" s="82"/>
@@ -16706,12 +16836,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="82"/>
       <c r="I45" s="82"/>
       <c r="J45" s="82"/>
@@ -16734,12 +16864,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="D46" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -16762,12 +16892,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="D47" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -16779,11 +16909,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -16793,7 +16923,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="100"/>
@@ -16807,9 +16937,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-735.70666666666671</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>-637.70666666666671</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -16821,9 +16951,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-890.26666666666677</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-792.26666666666677</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -16832,7 +16962,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -16843,7 +16973,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="100"/>
@@ -16852,14 +16982,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -16868,28 +16998,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -16897,38 +17027,13 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -16945,13 +17050,38 @@
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -16985,7 +17115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -16995,7 +17125,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="118" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -17018,7 +17148,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -17055,7 +17185,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -17141,9 +17271,9 @@
       </c>
       <c r="C13" s="35">
         <f>Juli!C51</f>
-        <v>-890.26666666666677</v>
-      </c>
-      <c r="D13" s="105" t="s">
+        <v>-792.26666666666677</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -17159,7 +17289,7 @@
         <f>Juli!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="105" t="str">
+      <c r="D14" s="108" t="str">
         <f>Juli!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -17169,11 +17299,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -17185,12 +17315,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -17247,10 +17377,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -17273,10 +17403,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -17299,12 +17429,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="D20" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -17327,12 +17457,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
+      <c r="D21" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -17355,12 +17485,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="D22" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -17383,12 +17513,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -17411,12 +17541,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -17439,10 +17569,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -17465,10 +17595,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -17491,10 +17621,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -17517,10 +17647,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -17543,10 +17673,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -17569,10 +17699,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -17595,10 +17725,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -17621,10 +17751,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -17647,10 +17777,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -17673,10 +17803,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="113"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -17699,10 +17829,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -17725,10 +17855,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -17751,10 +17881,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -17777,10 +17907,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -17803,10 +17933,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -17829,10 +17959,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -17855,10 +17985,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -17881,10 +18011,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -17907,10 +18037,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -17933,10 +18063,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -17959,10 +18089,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -17985,10 +18115,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -18011,10 +18141,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -18026,11 +18156,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -18040,7 +18170,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="121" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="100"/>
@@ -18054,9 +18184,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-890.26666666666677</v>
-      </c>
-      <c r="D50" s="105"/>
+        <v>-792.26666666666677</v>
+      </c>
+      <c r="D50" s="108"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -18068,9 +18198,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1024.6666666666667</v>
-      </c>
-      <c r="D51" s="109" t="s">
+        <v>-926.66666666666674</v>
+      </c>
+      <c r="D51" s="120" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -18079,7 +18209,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="101"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -18090,7 +18220,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="120" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="100"/>
@@ -18099,14 +18229,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="101"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="117" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -18115,28 +18245,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="101"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="101"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -18144,31 +18274,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -18184,21 +18304,31 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Stundenabrechnung_2025_Sulamith.xlsx
+++ b/Stundenabrechnung_2025_Sulamith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l-gehsul00/Documents/BEBB-Github/Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C9582-7805-8C47-ABF5-1E16500D570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7256051-41EA-4941-9D93-D50ED4759CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36560" yWindow="-6840" windowWidth="20320" windowHeight="27980" tabRatio="725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28580" yWindow="-5480" windowWidth="20320" windowHeight="27980" tabRatio="725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sollarbeitszeit" sheetId="13" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="123">
   <si>
     <t>Monat:</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>Mit Fritz kollationiert, Abstracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Céline koll., Teammeeting, Besprechung mit Martin und Raphael. </t>
+  </si>
+  <si>
+    <t>URLs, DokuWiki, Anfrage Wahl, Varignon, kollationieren mit Fritz</t>
+  </si>
+  <si>
+    <t>Kollaationieren mit Fritz, Webseite testen, Varignon</t>
   </si>
 </sst>
 </file>
@@ -861,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1067,6 +1076,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1085,10 +1112,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,20 +1123,6 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1122,6 +1131,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1150,14 +1168,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,7 +2104,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -2093,7 +2114,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -2116,7 +2137,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -2153,7 +2174,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -2239,9 +2260,9 @@
       </c>
       <c r="C13" s="35">
         <f>August!C51</f>
-        <v>-926.66666666666674</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-905.66666666666674</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -2257,7 +2278,7 @@
         <f>August!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>August!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -2267,11 +2288,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -2283,12 +2304,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -2317,10 +2338,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -2343,10 +2364,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -2369,10 +2390,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -2395,10 +2416,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -2421,10 +2442,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -2447,10 +2468,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
@@ -2473,10 +2494,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -2499,10 +2520,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -2525,10 +2546,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -2551,10 +2572,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -2577,10 +2598,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -2603,10 +2624,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -2629,10 +2650,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -2655,10 +2676,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -2681,10 +2702,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -2707,10 +2728,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -2733,10 +2754,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -2759,10 +2780,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -2785,10 +2806,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -2811,10 +2832,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -2837,10 +2858,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -2863,10 +2884,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -2889,10 +2910,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -2915,10 +2936,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -2941,10 +2962,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -2967,10 +2988,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -2993,10 +3014,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -3019,10 +3040,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="127"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="130"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -3045,10 +3066,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -3071,10 +3092,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -3086,11 +3107,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
@@ -3100,7 +3121,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="110" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="100"/>
@@ -3114,9 +3135,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-926.66666666666674</v>
-      </c>
-      <c r="D49" s="108"/>
+        <v>-905.66666666666674</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -3128,9 +3149,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1074.5066666666667</v>
-      </c>
-      <c r="D50" s="120" t="s">
+        <v>-1053.5066666666667</v>
+      </c>
+      <c r="D50" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -3139,7 +3160,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="117"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -3150,7 +3171,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="120" t="s">
+      <c r="D52" s="109" t="s">
         <v>75</v>
       </c>
       <c r="E52" s="100"/>
@@ -3159,14 +3180,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="117"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -3175,28 +3196,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -3204,6 +3225,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="D58:H58"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
@@ -3216,48 +3279,6 @@
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3291,7 +3312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -3301,7 +3322,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -3324,7 +3345,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -3361,7 +3382,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -3447,9 +3468,9 @@
       </c>
       <c r="C13" s="35">
         <f>September!C50</f>
-        <v>-1074.5066666666667</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-1053.5066666666667</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -3465,7 +3486,7 @@
         <f>September!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>September!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -3475,11 +3496,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -3491,12 +3512,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -3525,10 +3546,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -3551,10 +3572,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -3577,10 +3598,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -3603,10 +3624,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -3629,10 +3650,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -3655,10 +3676,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -3681,10 +3702,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -3707,10 +3728,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -3733,10 +3754,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -3759,10 +3780,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -3785,10 +3806,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -3811,10 +3832,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -3837,10 +3858,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -3863,10 +3884,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -3889,10 +3910,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -3915,10 +3936,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -3941,10 +3962,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -3967,10 +3988,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -3993,10 +4014,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -4019,10 +4040,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -4045,10 +4066,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -4071,10 +4092,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -4097,10 +4118,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -4123,10 +4144,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -4149,10 +4170,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -4175,10 +4196,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -4201,10 +4222,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -4227,10 +4248,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -4253,10 +4274,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -4279,10 +4300,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -4305,10 +4326,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -4320,11 +4341,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -4334,7 +4355,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>76</v>
       </c>
       <c r="E49" s="100"/>
@@ -4348,9 +4369,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1074.5066666666667</v>
-      </c>
-      <c r="D50" s="108"/>
+        <v>-1053.5066666666667</v>
+      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -4362,9 +4383,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1229.0666666666666</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-1208.0666666666666</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -4373,7 +4394,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -4384,7 +4405,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>77</v>
       </c>
       <c r="E53" s="100"/>
@@ -4393,14 +4414,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -4409,28 +4430,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -4438,6 +4459,46 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -4453,46 +4514,6 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4526,7 +4547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -4536,7 +4557,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -4559,7 +4580,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -4596,7 +4617,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -4682,9 +4703,9 @@
       </c>
       <c r="C13" s="35">
         <f>Oktober!C51</f>
-        <v>-1229.0666666666666</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-1208.0666666666666</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -4701,7 +4722,7 @@
         <f>Oktober!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Oktober!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -4711,11 +4732,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -4727,12 +4748,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -4761,10 +4782,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -4787,10 +4808,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -4813,10 +4834,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -4839,10 +4860,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -4865,10 +4886,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -4891,10 +4912,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -4917,10 +4938,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -4943,10 +4964,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -4969,10 +4990,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -4995,10 +5016,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -5021,10 +5042,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -5047,10 +5068,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -5073,10 +5094,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -5099,10 +5120,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -5125,10 +5146,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -5151,10 +5172,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -5177,10 +5198,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -5203,10 +5224,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -5229,10 +5250,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -5255,10 +5276,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -5281,10 +5302,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -5307,10 +5328,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -5333,10 +5354,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -5359,10 +5380,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -5385,10 +5406,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -5411,10 +5432,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -5437,10 +5458,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -5463,12 +5484,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="106"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -5491,10 +5512,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -5517,10 +5538,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="130"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -5532,11 +5553,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
@@ -5546,7 +5567,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="110" t="s">
         <v>78</v>
       </c>
       <c r="E48" s="100"/>
@@ -5560,9 +5581,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-1229.0666666666666</v>
-      </c>
-      <c r="D49" s="108"/>
+        <v>-1208.0666666666666</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -5574,9 +5595,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1363.4666666666667</v>
-      </c>
-      <c r="D50" s="120" t="s">
+        <v>-1342.4666666666667</v>
+      </c>
+      <c r="D50" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -5585,7 +5606,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="117"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -5596,7 +5617,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="120" t="s">
+      <c r="D52" s="109" t="s">
         <v>79</v>
       </c>
       <c r="E52" s="100"/>
@@ -5605,14 +5626,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="117"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -5621,28 +5642,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -5650,6 +5671,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D37:G37"/>
@@ -5666,44 +5725,6 @@
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5737,27 +5758,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
@@ -5770,14 +5791,14 @@
       <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
@@ -5807,14 +5828,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
@@ -5893,15 +5914,15 @@
       </c>
       <c r="C13" s="35">
         <f>November!C50</f>
-        <v>-1363.4666666666667</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-1342.4666666666667</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
@@ -5911,7 +5932,7 @@
         <f>November!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>November!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -5921,11 +5942,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -5937,12 +5958,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -5971,10 +5992,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -5997,10 +6018,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -6023,10 +6044,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -6049,10 +6070,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -6075,10 +6096,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -6101,10 +6122,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -6127,10 +6148,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -6153,10 +6174,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -6179,10 +6200,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -6205,10 +6226,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -6231,10 +6252,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -6257,10 +6278,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -6283,10 +6304,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -6309,10 +6330,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -6335,10 +6356,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -6361,10 +6382,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -6387,10 +6408,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -6413,10 +6434,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -6439,10 +6460,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -6465,10 +6486,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -6491,10 +6512,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -6517,10 +6538,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -6543,10 +6564,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -6569,12 +6590,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -6597,12 +6618,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -6625,12 +6646,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -6653,10 +6674,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -6679,10 +6700,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -6705,10 +6726,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -6731,10 +6752,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -6757,12 +6778,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -6774,11 +6795,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -6788,13 +6809,13 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
@@ -6802,13 +6823,13 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1363.4666666666667</v>
-      </c>
-      <c r="D50" s="108"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
+        <v>-1342.4666666666667</v>
+      </c>
+      <c r="D50" s="105"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
@@ -6816,89 +6837,114 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1497.8666666666668</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-1476.8666666666668</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="32">
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D52:H52"/>
@@ -6915,38 +6961,13 @@
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6974,19 +6995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -8289,7 +8310,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -8299,7 +8320,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -8322,7 +8343,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -8359,7 +8380,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -8446,7 +8467,7 @@
       <c r="C13" s="35">
         <v>0</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="105" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="100"/>
@@ -8462,7 +8483,7 @@
         <f>5*G5/100*42+0</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="105" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="100"/>
@@ -8471,11 +8492,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -8487,12 +8508,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -8521,12 +8542,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -8549,12 +8570,12 @@
         <f t="shared" ref="C18:C47" si="2">L18*24</f>
         <v>3.9166666666666647</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19" t="s">
         <v>100</v>
       </c>
@@ -8585,12 +8606,12 @@
         <f t="shared" si="2"/>
         <v>5.5833333333333313</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19" t="s">
         <v>99</v>
       </c>
@@ -8621,10 +8642,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -8647,10 +8668,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -8673,12 +8694,12 @@
         <f t="shared" si="2"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19" t="s">
         <v>100</v>
       </c>
@@ -8709,12 +8730,12 @@
         <f t="shared" si="2"/>
         <v>6.7500000000000018</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19" t="s">
         <v>99</v>
       </c>
@@ -8745,12 +8766,12 @@
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19" t="s">
         <v>100</v>
       </c>
@@ -8781,12 +8802,12 @@
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
@@ -8817,12 +8838,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19" t="s">
         <v>100</v>
       </c>
@@ -8853,10 +8874,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -8879,10 +8900,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8905,12 +8926,12 @@
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19" t="s">
         <v>100</v>
       </c>
@@ -8941,12 +8962,12 @@
         <f t="shared" si="2"/>
         <v>5.1666666666666661</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19" t="s">
         <v>100</v>
       </c>
@@ -8977,12 +8998,12 @@
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19" t="s">
         <v>100</v>
       </c>
@@ -9013,12 +9034,12 @@
         <f t="shared" si="2"/>
         <v>3.5833333333333339</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19" t="s">
         <v>100</v>
       </c>
@@ -9049,12 +9070,12 @@
         <f t="shared" si="2"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19" t="s">
         <v>100</v>
       </c>
@@ -9085,10 +9106,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -9111,10 +9132,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -9137,12 +9158,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="90">
         <v>0.375</v>
@@ -9171,12 +9192,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="90">
         <v>0.375</v>
@@ -9205,10 +9226,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="90">
         <v>0.375</v>
@@ -9237,10 +9258,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="90">
         <v>0.375</v>
@@ -9269,10 +9290,10 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="90">
         <v>0.375</v>
@@ -9301,10 +9322,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -9327,10 +9348,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -9353,10 +9374,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="90">
         <v>0.375</v>
@@ -9385,10 +9406,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="90">
         <v>0.375</v>
@@ -9417,12 +9438,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="90">
         <v>0.375</v>
@@ -9451,10 +9472,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="19"/>
       <c r="I46" s="90">
         <v>0.375</v>
@@ -9483,12 +9504,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="19"/>
       <c r="I47" s="90">
         <v>0.375</v>
@@ -9506,11 +9527,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -9520,7 +9541,7 @@
         <f>SUM(C17:C48)</f>
         <v>137.33333333333331</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="100"/>
@@ -9536,7 +9557,7 @@
         <f>C13+C49</f>
         <v>137.33333333333331</v>
       </c>
-      <c r="D50" s="108"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -9550,7 +9571,7 @@
         <f>(C50-C7)</f>
         <v>-10.506666666666689</v>
       </c>
-      <c r="D51" s="120" t="s">
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -9559,7 +9580,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -9570,7 +9591,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="100"/>
@@ -9579,14 +9600,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="100"/>
@@ -9595,28 +9616,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -9624,11 +9645,40 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D36:G36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D50:H50"/>
@@ -9645,40 +9695,11 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D55:H55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -9695,7 +9716,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+      <selection activeCell="D28" sqref="D27:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9712,7 +9733,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -9722,7 +9743,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -9745,7 +9766,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -9783,7 +9804,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -9871,7 +9892,7 @@
         <f>Januar!C51</f>
         <v>-10.506666666666689</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -9887,7 +9908,7 @@
         <f>Januar!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Januar!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -9897,11 +9918,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="84" t="s">
@@ -9913,12 +9934,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -9947,10 +9968,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -9970,10 +9991,10 @@
         <f t="shared" ref="C18:C44" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -9993,12 +10014,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="136"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="19"/>
       <c r="I19" s="90">
         <v>0.375</v>
@@ -10027,12 +10048,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="136"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="19"/>
       <c r="I20" s="90">
         <v>0.375</v>
@@ -10061,12 +10082,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="90">
         <v>0.375</v>
@@ -10095,12 +10116,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="90">
         <v>0.375</v>
@@ -10127,19 +10148,29 @@
       </c>
       <c r="C23" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+        <v>7.7499999999999991</v>
+      </c>
+      <c r="D23" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="J23" s="90">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K23" s="90">
+        <v>3.125E-2</v>
+      </c>
       <c r="L23" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32291666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -10155,10 +10186,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -10178,10 +10209,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -10199,19 +10230,27 @@
       </c>
       <c r="C26" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
+        <v>6.7500000000000018</v>
+      </c>
+      <c r="D26" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="I26" s="90">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J26" s="90">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K26" s="90">
+        <v>3.125E-2</v>
+      </c>
       <c r="L26" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28125000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -10225,19 +10264,27 @@
       </c>
       <c r="C27" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
+        <v>6.5</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="I27" s="90">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J27" s="90">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="K27" s="90">
+        <v>3.125E-2</v>
+      </c>
       <c r="L27" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -10253,10 +10300,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="19"/>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -10279,10 +10326,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="19"/>
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
@@ -10305,10 +10352,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="19"/>
       <c r="I30" s="90"/>
       <c r="J30" s="90"/>
@@ -10331,10 +10378,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -10354,10 +10401,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -10429,10 +10476,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -10455,10 +10502,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10481,10 +10528,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10507,10 +10554,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -10530,10 +10577,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -10605,10 +10652,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="90"/>
       <c r="J42" s="90"/>
@@ -10631,10 +10678,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="90"/>
       <c r="J43" s="90"/>
@@ -10657,10 +10704,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="90"/>
       <c r="J44" s="90"/>
@@ -10674,10 +10721,10 @@
       <c r="A45" s="79"/>
       <c r="B45" s="72"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="90"/>
       <c r="J45" s="90"/>
@@ -10686,11 +10733,11 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B46" s="37"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
@@ -10698,9 +10745,9 @@
       </c>
       <c r="C47" s="43">
         <f>SUM(C17:C46)</f>
-        <v>28</v>
-      </c>
-      <c r="D47" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="110" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="100"/>
@@ -10714,9 +10761,9 @@
       </c>
       <c r="C48" s="44">
         <f>C13+C47</f>
-        <v>17.493333333333311</v>
-      </c>
-      <c r="D48" s="108"/>
+        <v>38.493333333333311</v>
+      </c>
+      <c r="D48" s="105"/>
       <c r="E48" s="100"/>
       <c r="F48" s="100"/>
       <c r="G48" s="100"/>
@@ -10728,9 +10775,9 @@
       </c>
       <c r="C49" s="32">
         <f>(C48-C7)</f>
-        <v>-116.90666666666669</v>
-      </c>
-      <c r="D49" s="120" t="s">
+        <v>-95.906666666666695</v>
+      </c>
+      <c r="D49" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="100"/>
@@ -10739,7 +10786,7 @@
       <c r="H49" s="100"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="117"/>
+      <c r="D50" s="101"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -10750,7 +10797,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D51" s="120" t="s">
+      <c r="D51" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="100"/>
@@ -10759,14 +10806,14 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="100"/>
@@ -10775,28 +10822,28 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
@@ -10804,6 +10851,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G41"/>
@@ -10820,43 +10904,6 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10890,7 +10937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -10900,7 +10947,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -10923,7 +10970,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -10960,7 +11007,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -11046,9 +11093,9 @@
       </c>
       <c r="C13" s="35">
         <f>Februar!C49</f>
-        <v>-116.90666666666669</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-95.906666666666695</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -11064,7 +11111,7 @@
         <f>Februar!C51</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Februar!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -11074,11 +11121,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -11090,12 +11137,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -11124,10 +11171,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -11150,10 +11197,10 @@
         <f t="shared" ref="C18:C47" si="2">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -11176,12 +11223,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -11204,12 +11251,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -11232,12 +11279,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -11260,12 +11307,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -11288,12 +11335,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -11316,10 +11363,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -11342,10 +11389,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -11368,12 +11415,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -11396,12 +11443,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -11424,12 +11471,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -11452,12 +11499,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -11480,12 +11527,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -11508,10 +11555,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -11534,10 +11581,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -11560,10 +11607,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -11586,10 +11633,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -11612,10 +11659,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -11638,10 +11685,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -11664,10 +11711,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -11690,10 +11737,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -11716,10 +11763,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -11742,10 +11789,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -11768,10 +11815,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -11794,10 +11841,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -11820,10 +11867,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -11846,10 +11893,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -11872,10 +11919,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -11898,10 +11945,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="106"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -11924,10 +11971,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -11939,11 +11986,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -11953,7 +12000,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="100"/>
@@ -11967,9 +12014,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-116.90666666666669</v>
-      </c>
-      <c r="D50" s="108"/>
+        <v>-95.906666666666695</v>
+      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -11981,9 +12028,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-251.3066666666667</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-230.3066666666667</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -11992,7 +12039,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -12003,7 +12050,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="100"/>
@@ -12012,14 +12059,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -12028,28 +12075,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -12057,18 +12104,34 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -12084,34 +12147,18 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -12145,7 +12192,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -12155,7 +12202,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -12178,7 +12225,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -12215,7 +12262,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -12301,9 +12348,9 @@
       </c>
       <c r="C13" s="35">
         <f>März!C51</f>
-        <v>-251.3066666666667</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-230.3066666666667</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -12319,7 +12366,7 @@
         <f>März!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>März!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -12329,11 +12376,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -12345,12 +12392,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -12379,10 +12426,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="19"/>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
@@ -12405,10 +12452,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -12431,10 +12478,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -12457,10 +12504,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -12483,10 +12530,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="21"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
@@ -12509,10 +12556,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -12535,10 +12582,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -12561,10 +12608,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -12587,10 +12634,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -12613,10 +12660,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -12639,10 +12686,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -12665,10 +12712,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -12691,10 +12738,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -12717,12 +12764,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -12745,12 +12792,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -12773,12 +12820,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -12801,12 +12848,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -12829,12 +12876,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -12857,10 +12904,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -12883,10 +12930,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -12909,12 +12956,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -12937,12 +12984,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -12965,12 +13012,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -12993,12 +13040,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -13021,12 +13068,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -13049,10 +13096,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -13075,10 +13122,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -13101,10 +13148,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -13127,10 +13174,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -13153,10 +13200,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="19"/>
       <c r="I46" s="90"/>
       <c r="J46" s="94"/>
@@ -13168,11 +13215,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
       <c r="I47" s="91"/>
       <c r="J47" s="91"/>
       <c r="K47" s="91"/>
@@ -13186,7 +13233,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="110" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="100"/>
@@ -13200,9 +13247,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-251.3066666666667</v>
-      </c>
-      <c r="D49" s="108"/>
+        <v>-230.3066666666667</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -13214,9 +13261,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-382.34666666666669</v>
-      </c>
-      <c r="D50" s="120" t="s">
+        <v>-361.34666666666669</v>
+      </c>
+      <c r="D50" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -13225,7 +13272,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="117"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -13236,7 +13283,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="120" t="s">
+      <c r="D52" s="109" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="100"/>
@@ -13245,14 +13292,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="117"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -13261,28 +13308,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -13290,48 +13337,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
@@ -13344,6 +13349,48 @@
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13377,7 +13424,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -13387,7 +13434,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -13410,7 +13457,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -13447,7 +13494,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -13533,9 +13580,9 @@
       </c>
       <c r="C13" s="35">
         <f>April!C50</f>
-        <v>-382.34666666666669</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-361.34666666666669</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -13551,7 +13598,7 @@
         <f>April!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>April!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -13561,11 +13608,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -13577,12 +13624,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -13611,12 +13658,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -13639,10 +13686,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -13665,10 +13712,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -13691,10 +13738,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -13717,10 +13764,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="82"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -13743,10 +13790,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -13769,10 +13816,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -13795,10 +13842,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -13821,10 +13868,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="82"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -13847,10 +13894,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -13873,10 +13920,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -13899,10 +13946,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="82"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -13925,10 +13972,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -13951,10 +13998,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -13977,10 +14024,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -14003,10 +14050,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -14029,10 +14076,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -14055,10 +14102,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -14081,10 +14128,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="82"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -14107,10 +14154,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="82"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -14133,10 +14180,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -14159,10 +14206,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -14185,10 +14232,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -14211,10 +14258,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -14237,10 +14284,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -14263,10 +14310,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="82"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -14289,10 +14336,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -14315,10 +14362,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -14341,12 +14388,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -14369,12 +14416,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="106"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -14397,10 +14444,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="21"/>
       <c r="I47" s="96"/>
       <c r="J47" s="97"/>
@@ -14412,11 +14459,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -14426,7 +14473,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="100"/>
@@ -14440,9 +14487,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-382.34666666666669</v>
-      </c>
-      <c r="D50" s="108"/>
+        <v>-361.34666666666669</v>
+      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -14454,9 +14501,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-503.30666666666673</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-482.30666666666673</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -14465,7 +14512,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -14476,7 +14523,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="100"/>
@@ -14485,14 +14532,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -14501,28 +14548,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -14530,6 +14577,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D58:H58"/>
@@ -14546,45 +14632,6 @@
     <mergeCell ref="D57:H57"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -14618,7 +14665,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -14628,7 +14675,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -14651,7 +14698,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -14688,7 +14735,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -14774,9 +14821,9 @@
       </c>
       <c r="C13" s="35">
         <f>Mai!C51</f>
-        <v>-503.30666666666673</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-482.30666666666673</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -14792,7 +14839,7 @@
         <f>Mai!C14</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Mai!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -14802,11 +14849,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -14818,12 +14865,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -14852,10 +14899,10 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -14878,10 +14925,10 @@
         <f t="shared" ref="C18:C46" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="82"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -14904,10 +14951,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -14930,10 +14977,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -14956,10 +15003,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -14982,10 +15029,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -15008,10 +15055,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -15034,10 +15081,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -15060,12 +15107,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -15088,10 +15135,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -15114,10 +15161,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -15140,10 +15187,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -15166,10 +15213,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -15192,10 +15239,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="106"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -15218,10 +15265,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -15244,10 +15291,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="82"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -15270,10 +15317,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -15296,10 +15343,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -15322,10 +15369,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -15348,10 +15395,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -15374,10 +15421,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -15400,10 +15447,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -15426,10 +15473,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="82"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -15452,10 +15499,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -15478,10 +15525,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -15504,10 +15551,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -15530,10 +15577,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -15556,10 +15603,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="106"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -15582,10 +15629,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -15608,12 +15655,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="82"/>
       <c r="I46" s="90"/>
       <c r="J46" s="94"/>
@@ -15625,11 +15672,11 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
       <c r="I47" s="91"/>
       <c r="J47" s="91"/>
       <c r="K47" s="91"/>
@@ -15643,7 +15690,7 @@
         <f>SUM(C17:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="110" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="100"/>
@@ -15657,9 +15704,9 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-503.30666666666673</v>
-      </c>
-      <c r="D49" s="108"/>
+        <v>-482.30666666666673</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
       <c r="G49" s="100"/>
@@ -15671,9 +15718,9 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-637.70666666666671</v>
-      </c>
-      <c r="D50" s="120" t="s">
+        <v>-616.70666666666671</v>
+      </c>
+      <c r="D50" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="100"/>
@@ -15682,7 +15729,7 @@
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="117"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="100"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
@@ -15693,7 +15740,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D52" s="120" t="s">
+      <c r="D52" s="109" t="s">
         <v>69</v>
       </c>
       <c r="E52" s="100"/>
@@ -15702,14 +15749,14 @@
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="117"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="100"/>
       <c r="F53" s="100"/>
       <c r="G53" s="100"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="100"/>
@@ -15718,28 +15765,28 @@
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
       <c r="G55" s="100"/>
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -15747,49 +15794,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
@@ -15801,6 +15805,49 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -15834,7 +15881,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -15844,7 +15891,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -15867,7 +15914,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -15904,7 +15951,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -15990,9 +16037,9 @@
       </c>
       <c r="C13" s="35">
         <f>Juni!C50</f>
-        <v>-637.70666666666671</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-616.70666666666671</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -16008,7 +16055,7 @@
         <f>Juni!C52</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Juni!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -16018,11 +16065,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -16034,12 +16081,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -16068,12 +16115,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -16096,12 +16143,12 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="19"/>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
@@ -16124,12 +16171,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
@@ -16152,12 +16199,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -16180,10 +16227,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="21"/>
       <c r="I21" s="96"/>
       <c r="J21" s="97"/>
@@ -16206,10 +16253,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="22"/>
       <c r="I22" s="96"/>
       <c r="J22" s="97"/>
@@ -16232,12 +16279,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
@@ -16260,12 +16307,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -16288,12 +16335,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="19"/>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
@@ -16316,12 +16363,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="19"/>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
@@ -16344,12 +16391,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -16372,10 +16419,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="21"/>
       <c r="I28" s="96"/>
       <c r="J28" s="97"/>
@@ -16398,10 +16445,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="22"/>
       <c r="I29" s="96"/>
       <c r="J29" s="97"/>
@@ -16424,12 +16471,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="82"/>
       <c r="I30" s="82"/>
       <c r="J30" s="82"/>
@@ -16452,12 +16499,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -16480,12 +16527,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="19"/>
       <c r="I32" s="92"/>
       <c r="J32" s="93"/>
@@ -16508,12 +16555,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="19"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
@@ -16536,12 +16583,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -16564,10 +16611,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="21"/>
       <c r="I35" s="96"/>
       <c r="J35" s="97"/>
@@ -16590,10 +16637,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="22"/>
       <c r="I36" s="96"/>
       <c r="J36" s="97"/>
@@ -16616,12 +16663,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -16644,12 +16691,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="82"/>
       <c r="I38" s="82"/>
       <c r="J38" s="82"/>
@@ -16672,12 +16719,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="19"/>
       <c r="I39" s="92"/>
       <c r="J39" s="93"/>
@@ -16700,12 +16747,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="19"/>
       <c r="I40" s="92"/>
       <c r="J40" s="93"/>
@@ -16728,12 +16775,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -16756,10 +16803,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="21"/>
       <c r="I42" s="96"/>
       <c r="J42" s="97"/>
@@ -16782,10 +16829,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="22"/>
       <c r="I43" s="96"/>
       <c r="J43" s="97"/>
@@ -16808,12 +16855,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="82"/>
       <c r="I44" s="82"/>
       <c r="J44" s="82"/>
@@ -16836,12 +16883,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="82"/>
       <c r="I45" s="82"/>
       <c r="J45" s="82"/>
@@ -16864,12 +16911,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="19"/>
       <c r="I46" s="92"/>
       <c r="J46" s="93"/>
@@ -16892,12 +16939,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="19"/>
       <c r="I47" s="92"/>
       <c r="J47" s="93"/>
@@ -16909,11 +16956,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -16923,7 +16970,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="100"/>
@@ -16937,9 +16984,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-637.70666666666671</v>
-      </c>
-      <c r="D50" s="108"/>
+        <v>-616.70666666666671</v>
+      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -16951,9 +16998,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-792.26666666666677</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-771.26666666666677</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -16962,7 +17009,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -16973,7 +17020,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="100"/>
@@ -16982,14 +17029,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -16998,28 +17045,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -17027,13 +17074,38 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
@@ -17050,38 +17122,13 @@
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -17115,7 +17162,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="114"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -17125,7 +17172,7 @@
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="str">
+      <c r="A2" s="106" t="str">
         <f>Sollarbeitszeit!A2</f>
         <v>BEBB - Basler Inventar der Bernoulli-Briefwechsel</v>
       </c>
@@ -17148,7 +17195,7 @@
       <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -17185,7 +17232,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -17271,9 +17318,9 @@
       </c>
       <c r="C13" s="35">
         <f>Juli!C51</f>
-        <v>-792.26666666666677</v>
-      </c>
-      <c r="D13" s="108" t="s">
+        <v>-771.26666666666677</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="100"/>
@@ -17289,7 +17336,7 @@
         <f>Juli!C53</f>
         <v>168</v>
       </c>
-      <c r="D14" s="108" t="str">
+      <c r="D14" s="105" t="str">
         <f>Juli!D14</f>
         <v xml:space="preserve">  (5 W + 0 Tg Vortrag aus 2024)</v>
       </c>
@@ -17299,11 +17346,11 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -17315,12 +17362,12 @@
       <c r="C16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="41" t="s">
         <v>47</v>
       </c>
@@ -17349,12 +17396,12 @@
         <f>L17*24</f>
         <v>0</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -17377,10 +17424,10 @@
         <f t="shared" ref="C18:C47" si="1">L18*24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -17403,10 +17450,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -17429,12 +17476,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="19"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
@@ -17457,12 +17504,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="19"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
@@ -17485,12 +17532,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="19"/>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
@@ -17513,12 +17560,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="19"/>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
@@ -17541,12 +17588,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="19"/>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
@@ -17569,10 +17616,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -17595,10 +17642,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -17621,10 +17668,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="19"/>
       <c r="I27" s="92"/>
       <c r="J27" s="93"/>
@@ -17647,10 +17694,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="19"/>
       <c r="I28" s="92"/>
       <c r="J28" s="93"/>
@@ -17673,10 +17720,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="19"/>
       <c r="I29" s="92"/>
       <c r="J29" s="93"/>
@@ -17699,10 +17746,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="19"/>
       <c r="I30" s="92"/>
       <c r="J30" s="93"/>
@@ -17725,10 +17772,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="19"/>
       <c r="I31" s="92"/>
       <c r="J31" s="93"/>
@@ -17751,10 +17798,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -17777,10 +17824,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -17803,10 +17850,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="19"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
@@ -17829,10 +17876,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="19"/>
       <c r="I35" s="92"/>
       <c r="J35" s="93"/>
@@ -17855,10 +17902,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="19"/>
       <c r="I36" s="92"/>
       <c r="J36" s="93"/>
@@ -17881,10 +17928,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="19"/>
       <c r="I37" s="92"/>
       <c r="J37" s="93"/>
@@ -17907,10 +17954,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="19"/>
       <c r="I38" s="92"/>
       <c r="J38" s="93"/>
@@ -17933,10 +17980,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -17959,10 +18006,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -17985,10 +18032,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="19"/>
       <c r="I41" s="92"/>
       <c r="J41" s="93"/>
@@ -18011,10 +18058,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
       <c r="H42" s="19"/>
       <c r="I42" s="92"/>
       <c r="J42" s="93"/>
@@ -18037,10 +18084,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="19"/>
       <c r="I43" s="92"/>
       <c r="J43" s="93"/>
@@ -18063,10 +18110,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="19"/>
       <c r="I44" s="92"/>
       <c r="J44" s="93"/>
@@ -18089,10 +18136,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="19"/>
       <c r="I45" s="92"/>
       <c r="J45" s="93"/>
@@ -18115,10 +18162,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="106"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -18141,10 +18188,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -18156,11 +18203,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="37"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
@@ -18170,7 +18217,7 @@
         <f>SUM(C17:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="110" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="100"/>
@@ -18184,9 +18231,9 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-792.26666666666677</v>
-      </c>
-      <c r="D50" s="108"/>
+        <v>-771.26666666666677</v>
+      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="100"/>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -18198,9 +18245,9 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-926.66666666666674</v>
-      </c>
-      <c r="D51" s="120" t="s">
+        <v>-905.66666666666674</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="100"/>
@@ -18209,7 +18256,7 @@
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="117"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="100"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
@@ -18220,7 +18267,7 @@
         <f>C14-0</f>
         <v>168</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="109" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="100"/>
@@ -18229,14 +18276,14 @@
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="117"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="100"/>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="100"/>
@@ -18245,28 +18292,28 @@
       <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="117"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100"/>
       <c r="H56" s="100"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="117"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
       <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="117"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
       <c r="H58" s="100"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="117"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>
       <c r="G59" s="100"/>
@@ -18274,6 +18321,46 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -18289,46 +18376,6 @@
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Stundenabrechnung_2025_Sulamith.xlsx
+++ b/Stundenabrechnung_2025_Sulamith.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l-gehsul00/Documents/BEBB-Github/Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606807A5-5ED3-D344-B513-1308C83F1981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC64A8-0577-3B4D-8A6E-8CFA9D935A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="25060" windowHeight="17500" tabRatio="725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5740" uniqueCount="1478">
   <si>
     <t>Monat:</t>
   </si>
@@ -4479,6 +4479,9 @@
   </si>
   <si>
     <t>Vorbereitung Meetings, Meeting RISE, Meeting Helmut, Einrichten Doku-Wiki, Varignon, Organisatorisches</t>
+  </si>
+  <si>
+    <t>Anpassung create-combined-index-list.py, Validierungsfehler behoben, Anleitung Update Register, 32 Figuren ausgeschnitten, Mit Fritz kollationiert. Varignon.</t>
   </si>
 </sst>
 </file>
@@ -6375,7 +6378,7 @@
       </c>
       <c r="C13" s="35">
         <f>August!C51</f>
-        <v>-896.00000000000011</v>
+        <v>-884.50000000000011</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -7250,7 +7253,7 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-896.00000000000011</v>
+        <v>-884.50000000000011</v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="100"/>
@@ -7264,7 +7267,7 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1043.8400000000001</v>
+        <v>-1032.3400000000001</v>
       </c>
       <c r="D50" s="120" t="s">
         <v>11</v>
@@ -7583,7 +7586,7 @@
       </c>
       <c r="C13" s="35">
         <f>September!C50</f>
-        <v>-1043.8400000000001</v>
+        <v>-1032.3400000000001</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -8484,7 +8487,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1043.8400000000001</v>
+        <v>-1032.3400000000001</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="100"/>
@@ -8498,7 +8501,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1198.4000000000001</v>
+        <v>-1186.9000000000001</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
@@ -8818,7 +8821,7 @@
       </c>
       <c r="C13" s="35">
         <f>Oktober!C51</f>
-        <v>-1198.4000000000001</v>
+        <v>-1186.9000000000001</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -9696,7 +9699,7 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-1198.4000000000001</v>
+        <v>-1186.9000000000001</v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="100"/>
@@ -9710,7 +9713,7 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-1332.8000000000002</v>
+        <v>-1321.3000000000002</v>
       </c>
       <c r="D50" s="120" t="s">
         <v>11</v>
@@ -10029,7 +10032,7 @@
       </c>
       <c r="C13" s="35">
         <f>November!C50</f>
-        <v>-1332.8000000000002</v>
+        <v>-1321.3000000000002</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -10938,7 +10941,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-1332.8000000000002</v>
+        <v>-1321.3000000000002</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="117"/>
@@ -10952,7 +10955,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-1467.2000000000003</v>
+        <v>-1455.7000000000003</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
@@ -30885,7 +30888,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:G28"/>
+      <selection activeCell="D30" sqref="D30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -31501,19 +31504,27 @@
       </c>
       <c r="C29" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="122"/>
+        <v>11.500000000000002</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>1477</v>
+      </c>
       <c r="E29" s="123"/>
       <c r="F29" s="123"/>
       <c r="G29" s="124"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
+      <c r="I29" s="90">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J29" s="90">
+        <v>0.875</v>
+      </c>
+      <c r="K29" s="90">
+        <v>6.25E-2</v>
+      </c>
       <c r="L29" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -31922,7 +31933,7 @@
       </c>
       <c r="C47" s="43">
         <f>SUM(C17:C46)</f>
-        <v>58.666666666666671</v>
+        <v>70.166666666666671</v>
       </c>
       <c r="D47" s="121" t="s">
         <v>60</v>
@@ -31938,7 +31949,7 @@
       </c>
       <c r="C48" s="44">
         <f>C13+C47</f>
-        <v>48.159999999999982</v>
+        <v>59.659999999999982</v>
       </c>
       <c r="D48" s="108"/>
       <c r="E48" s="100"/>
@@ -31952,7 +31963,7 @@
       </c>
       <c r="C49" s="32">
         <f>(C48-C7)</f>
-        <v>-86.240000000000023</v>
+        <v>-74.740000000000023</v>
       </c>
       <c r="D49" s="120" t="s">
         <v>11</v>
@@ -32270,7 +32281,7 @@
       </c>
       <c r="C13" s="35">
         <f>Februar!C49</f>
-        <v>-86.240000000000023</v>
+        <v>-74.740000000000023</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -33191,7 +33202,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-86.240000000000023</v>
+        <v>-74.740000000000023</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="100"/>
@@ -33205,7 +33216,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-220.64000000000004</v>
+        <v>-209.14000000000004</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
@@ -33525,7 +33536,7 @@
       </c>
       <c r="C13" s="35">
         <f>März!C51</f>
-        <v>-220.64000000000004</v>
+        <v>-209.14000000000004</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -34424,7 +34435,7 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-220.64000000000004</v>
+        <v>-209.14000000000004</v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="100"/>
@@ -34438,7 +34449,7 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-351.68000000000006</v>
+        <v>-340.18000000000006</v>
       </c>
       <c r="D50" s="120" t="s">
         <v>11</v>
@@ -34757,7 +34768,7 @@
       </c>
       <c r="C13" s="35">
         <f>April!C50</f>
-        <v>-351.68000000000006</v>
+        <v>-340.18000000000006</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -35664,7 +35675,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-351.68000000000006</v>
+        <v>-340.18000000000006</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="100"/>
@@ -35678,7 +35689,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-472.6400000000001</v>
+        <v>-461.1400000000001</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
@@ -35998,7 +36009,7 @@
       </c>
       <c r="C13" s="35">
         <f>Mai!C51</f>
-        <v>-472.6400000000001</v>
+        <v>-461.1400000000001</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -36881,7 +36892,7 @@
       </c>
       <c r="C49" s="44">
         <f>C13+C48</f>
-        <v>-472.6400000000001</v>
+        <v>-461.1400000000001</v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="100"/>
@@ -36895,7 +36906,7 @@
       </c>
       <c r="C50" s="32">
         <f>(C49-C7)</f>
-        <v>-607.04000000000008</v>
+        <v>-595.54000000000008</v>
       </c>
       <c r="D50" s="120" t="s">
         <v>11</v>
@@ -37214,7 +37225,7 @@
       </c>
       <c r="C13" s="35">
         <f>Juni!C50</f>
-        <v>-607.04000000000008</v>
+        <v>-595.54000000000008</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -38161,7 +38172,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-607.04000000000008</v>
+        <v>-595.54000000000008</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="100"/>
@@ -38175,7 +38186,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-761.60000000000014</v>
+        <v>-750.10000000000014</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
@@ -38495,7 +38506,7 @@
       </c>
       <c r="C13" s="35">
         <f>Juli!C51</f>
-        <v>-761.60000000000014</v>
+        <v>-750.10000000000014</v>
       </c>
       <c r="D13" s="108" t="s">
         <v>21</v>
@@ -39408,7 +39419,7 @@
       </c>
       <c r="C50" s="44">
         <f>C13+C49</f>
-        <v>-761.60000000000014</v>
+        <v>-750.10000000000014</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="100"/>
@@ -39422,7 +39433,7 @@
       </c>
       <c r="C51" s="32">
         <f>(C50-C7)</f>
-        <v>-896.00000000000011</v>
+        <v>-884.50000000000011</v>
       </c>
       <c r="D51" s="120" t="s">
         <v>11</v>
